--- a/MVP Statistics.xlsx
+++ b/MVP Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048325C6-10A8-431E-A97E-AC931097ED24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D20476-C2F9-408A-8BC9-5D3AD128980D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8772" yWindow="0" windowWidth="10776" windowHeight="11628" activeTab="1" xr2:uid="{FA30A5C2-9D91-47E5-89A0-CCB9B5E6D670}"/>
+    <workbookView xWindow="11388" yWindow="468" windowWidth="10776" windowHeight="11628" activeTab="1" xr2:uid="{FA30A5C2-9D91-47E5-89A0-CCB9B5E6D670}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritptive Stat" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>MVPNLContenders</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t xml:space="preserve">Atlanta Braves </t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t xml:space="preserve">Kansas City Royals </t>
   </si>
   <si>
-    <t xml:space="preserve">Los Angeles Angels of Anaheim </t>
-  </si>
-  <si>
     <t xml:space="preserve">Los Angeles Dodgers </t>
   </si>
   <si>
@@ -319,6 +313,15 @@
   </si>
   <si>
     <t>Tampa Bay Rays</t>
+  </si>
+  <si>
+    <t>Winner Count</t>
+  </si>
+  <si>
+    <t>Top 9 Contenders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles Angels </t>
   </si>
 </sst>
 </file>
@@ -326,7 +329,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -371,29 +374,19 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1446,433 +1439,547 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A72AAF5-3C20-4252-8896-378DADCA35CA}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C19" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
